--- a/medicine/Pharmacie/Platane_d'Orient/Platane_d'Orient.xlsx
+++ b/medicine/Pharmacie/Platane_d'Orient/Platane_d'Orient.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Platane_d%27Orient</t>
+          <t>Platane_d'Orient</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Platanus orientalis
 Le platane d'Orient (Platanus orientalis) est une espèce d'arbre de la famille des Platanacées originaire d'Europe du Sud-Est et du Moyen-Orient. Cette espèce anciennement introduite en Europe occidentale a été utilisée comme arbre d'ornement puis a été supplantée par le platane commun.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Platane_d%27Orient</t>
+          <t>Platane_d'Orient</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le platane d'Orient est un grand arbre, environ 30 m de haut,  à houppier large et irrégulier. L'écorce brun rosâtre est très lisse et se délite par grandes plaques arrondies laissant des taches jaunâtres.
 Les feuilles caduques, alternes, à nervation palmée, sont profondément découpées et comptent cinq lobes  aigus séparés par des sinus profonds.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Platane_d%27Orient</t>
+          <t>Platane_d'Orient</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire du bassin oriental de la Méditerranée : Turquie, Chypre, Grèce, Albanie, ex-Yougoslavie, Italie…
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Platane_d%27Orient</t>
+          <t>Platane_d'Orient</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le platane d'Orient est utilisé comme arbre d'ornement, mais est peu répandu.
 Son bois est utilisable en menuiserie.
